--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-masking-0.1/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,9 +46,6 @@
     <t>disappointing</t>
   </si>
   <si>
-    <t>thin</t>
-  </si>
-  <si>
     <t>poor</t>
   </si>
   <si>
@@ -61,138 +58,132 @@
     <t>disappointed</t>
   </si>
   <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>junk</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>smaller</t>
   </si>
   <si>
     <t>water</t>
   </si>
   <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
-    <t>missing</t>
+    <t>guess</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>okay</t>
+    <t>less</t>
+  </si>
+  <si>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>paint</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>bit</t>
   </si>
   <si>
     <t>thought</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
     <t>hard</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
+    <t>back</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>box</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>little</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>amazing</t>
   </si>
   <si>
@@ -208,12 +199,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -223,21 +214,24 @@
     <t>best</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>learn</t>
   </si>
   <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>christmas</t>
   </si>
   <si>
@@ -247,10 +241,10 @@
     <t>game</t>
   </si>
   <si>
+    <t>family</t>
+  </si>
+  <si>
     <t>easy</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>play</t>
@@ -614,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +616,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -683,13 +677,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -701,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -733,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K4">
-        <v>0.8923076923076924</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -775,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -783,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7931034482758621</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="D5">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,19 +795,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K5">
-        <v>0.8518518518518519</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -825,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -833,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.734375</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -854,16 +848,16 @@
         <v>17</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>0.8064516129032258</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -875,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -883,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.71875</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K7">
         <v>0.75</v>
@@ -933,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7105263157894737</v>
+        <v>0.7043010752688172</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>131</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K8">
-        <v>0.6981132075471698</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M8">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -983,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7096774193548387</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="C9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>132</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1001,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K9">
-        <v>0.5667144906743186</v>
+        <v>0.5652797704447633</v>
       </c>
       <c r="L9">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M9">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1025,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1033,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6363636363636364</v>
+        <v>0.6486486486486487</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K10">
-        <v>0.524896265560166</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L10">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>253</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>229</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1077,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6283783783783784</v>
+        <v>0.6019417475728155</v>
       </c>
       <c r="C11">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="D11">
-        <v>93</v>
+        <v>124</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K11">
-        <v>0.5217391304347826</v>
+        <v>0.508298755186722</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>245</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>33</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1127,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.616504854368932</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>127</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1151,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>0.4581967213114754</v>
+        <v>0.4540983606557377</v>
       </c>
       <c r="L12">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="M12">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>661</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1177,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5952380952380952</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1201,19 +1195,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K13">
-        <v>0.3516819571865443</v>
+        <v>0.3608562691131498</v>
       </c>
       <c r="L13">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M13">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1233,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5630252100840336</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K14">
-        <v>0.35</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M14">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1277,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5625</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="C15">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K15">
-        <v>0.3192771084337349</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L15">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1327,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4985507246376812</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="C16">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D16">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K16">
-        <v>0.3015873015873016</v>
+        <v>0.3132530120481928</v>
       </c>
       <c r="L16">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="M16">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4888888888888889</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C17">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K17">
-        <v>0.203125</v>
+        <v>0.234375</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4698795180722892</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C18">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K18">
-        <v>0.1935483870967742</v>
+        <v>0.192</v>
       </c>
       <c r="L18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="M18">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>150</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4444444444444444</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K19">
-        <v>0.1678321678321678</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4074074074074074</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
+        <v>38</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20">
+        <v>0.1720430107526882</v>
+      </c>
+      <c r="L20">
         <v>32</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K20">
-        <v>0.1606425702811245</v>
-      </c>
-      <c r="L20">
-        <v>40</v>
-      </c>
       <c r="M20">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>209</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.40625</v>
+        <v>0.3700787401574803</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D21">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K21">
-        <v>0.1463628396143734</v>
+        <v>0.1646586345381526</v>
       </c>
       <c r="L21">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="M21">
-        <v>167</v>
+        <v>41</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>974</v>
+        <v>208</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3937007874015748</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="C22">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,31 +1645,31 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="K22">
-        <v>0.0792722547108512</v>
+        <v>0.1446099912357581</v>
       </c>
       <c r="L22">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="M22">
-        <v>124</v>
+        <v>165</v>
       </c>
       <c r="N22">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1417</v>
+        <v>976</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.390625</v>
+        <v>0.359375</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1701,31 +1695,31 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K23">
-        <v>0.06684491978609626</v>
+        <v>0.08116883116883117</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>349</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1727,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3809523809523809</v>
+        <v>0.3459715639810427</v>
       </c>
       <c r="C24">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D24">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K24">
-        <v>0.06128133704735376</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="L24">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,49 +1777,49 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.3601895734597156</v>
+        <v>0.3146067415730337</v>
       </c>
       <c r="C25">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>28</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>61</v>
+      </c>
+      <c r="J25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D25">
-        <v>76</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>135</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="K25">
-        <v>0.04</v>
+        <v>0.06970509383378017</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>720</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,13 +1827,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.3483146067415731</v>
+        <v>0.2755102040816326</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1851,7 +1845,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>58</v>
+        <v>71</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26">
+        <v>0.044</v>
+      </c>
+      <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26">
+        <v>35</v>
+      </c>
+      <c r="N26">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>717</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1859,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.3368421052631579</v>
+        <v>0.2425742574257426</v>
       </c>
       <c r="C27">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="D27">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1877,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>63</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1885,13 +1903,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2673267326732673</v>
+        <v>0.2422680412371134</v>
       </c>
       <c r="C28">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D28">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1903,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1911,13 +1929,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2564102564102564</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="C29">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1929,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1937,13 +1955,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2244897959183673</v>
+        <v>0.185</v>
       </c>
       <c r="C30">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="D30">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1955,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>76</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1963,13 +1981,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1958762886597938</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C31">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1981,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>156</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1989,13 +2007,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.195</v>
+        <v>0.1702898550724638</v>
       </c>
       <c r="C32">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="D32">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2007,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>161</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2015,13 +2033,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.177536231884058</v>
+        <v>0.1642857142857143</v>
       </c>
       <c r="C33">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2033,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>227</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2041,13 +2059,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1664190193164933</v>
+        <v>0.161961367013373</v>
       </c>
       <c r="C34">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D34">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34">
         <v>0.01</v>
@@ -2059,7 +2077,7 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2067,13 +2085,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1592356687898089</v>
+        <v>0.1551724137931035</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2085,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>132</v>
+        <v>294</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2093,25 +2111,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1582278481012658</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C36">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2119,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1580459770114943</v>
+        <v>0.1214128035320088</v>
       </c>
       <c r="C37">
         <v>55</v>
       </c>
       <c r="D37">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>293</v>
+        <v>398</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2145,13 +2163,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1455696202531646</v>
+        <v>0.1204188481675393</v>
       </c>
       <c r="C38">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2163,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>270</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2171,25 +2189,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1428571428571428</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E39">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2197,13 +2215,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.1314285714285714</v>
+        <v>0.1123595505617977</v>
       </c>
       <c r="C40">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2215,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>152</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2223,13 +2241,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.1308411214953271</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="C41">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2241,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2249,13 +2267,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.1256544502617801</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="C42">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D42">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2267,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>167</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2275,13 +2293,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1211453744493392</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="C43">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2293,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>399</v>
+        <v>413</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2301,13 +2319,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1048387096774194</v>
+        <v>0.06760563380281689</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D44">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2319,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>222</v>
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2327,25 +2345,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.0821917808219178</v>
+        <v>0.06260296540362438</v>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D45">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>335</v>
+        <v>569</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2353,25 +2371,25 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.07344632768361582</v>
+        <v>0.0444104134762634</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D46">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E46">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="F46">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>328</v>
+        <v>624</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2379,103 +2397,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06754530477759473</v>
+        <v>0.04435994930291508</v>
       </c>
       <c r="C47">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D47">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="F47">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48">
-        <v>0.06473214285714286</v>
-      </c>
-      <c r="C48">
-        <v>29</v>
-      </c>
-      <c r="D48">
-        <v>30</v>
-      </c>
-      <c r="E48">
-        <v>0.03</v>
-      </c>
-      <c r="F48">
-        <v>0.97</v>
-      </c>
-      <c r="G48" t="b">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49">
-        <v>0.04695431472081218</v>
-      </c>
-      <c r="C49">
-        <v>37</v>
-      </c>
-      <c r="D49">
-        <v>43</v>
-      </c>
-      <c r="E49">
-        <v>0.14</v>
-      </c>
-      <c r="F49">
-        <v>0.86</v>
-      </c>
-      <c r="G49" t="b">
-        <v>1</v>
-      </c>
-      <c r="H49">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50">
-        <v>0.04141104294478527</v>
-      </c>
-      <c r="C50">
-        <v>27</v>
-      </c>
-      <c r="D50">
-        <v>30</v>
-      </c>
-      <c r="E50">
-        <v>0.1</v>
-      </c>
-      <c r="F50">
-        <v>0.9</v>
-      </c>
-      <c r="G50" t="b">
-        <v>1</v>
-      </c>
-      <c r="H50">
-        <v>625</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
